--- a/Docs/Documentos Turismo/mail 3/SENDERISMO Y TREKKING SAN JUAN - (SENDEROS PARA APP FIESTA DEL SOL 2018).xlsx
+++ b/Docs/Documentos Turismo/mail 3/SENDERISMO Y TREKKING SAN JUAN - (SENDEROS PARA APP FIESTA DEL SOL 2018).xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sistemas\GitHub-Repositorios\TurApp-BackOffice\Docs\Documentos Turismo\mail 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -290,7 +295,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -859,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -917,10 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,13 +939,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,9 +1064,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1127,7 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1149,6 +1146,45 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,6 +1194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1206,7 +1245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1241,7 +1280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,12 +1492,12 @@
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="79" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="74" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
@@ -1467,24 +1506,24 @@
     <col min="7" max="7" width="16.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
-    <col min="10" max="18" width="11.42578125" style="58"/>
+    <col min="10" max="18" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="84"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1511,12 +1550,12 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1526,10 +1565,10 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1539,116 +1578,116 @@
       <c r="F4" s="15"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="102">
+      <c r="I4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="123">
         <v>1</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="125">
         <v>5</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="125">
         <v>780</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="125">
         <v>1061</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="125">
         <f>E5-D5</f>
         <v>281</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="103">
+    <row r="6" spans="1:10" s="129" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="132">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="132">
         <v>780</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="132">
         <v>931</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="132">
         <f>E6-D6</f>
         <v>151</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="135" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="104">
+    <row r="7" spans="1:10" s="129" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="136">
         <v>3</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="138">
         <v>800</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="138">
         <v>931</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="138">
         <f>E7-D7</f>
         <v>131</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="140" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="85"/>
-      <c r="B8" s="89" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="66"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="102">
+      <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="81" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="21">
@@ -1664,243 +1703,243 @@
         <f>E9-D9</f>
         <v>107</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="106" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="103">
+    <row r="10" spans="1:10" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="130">
         <v>5</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="125">
         <v>727</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="125">
         <v>936</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="125">
         <f>E10-D10</f>
         <v>209</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="104">
+      <c r="A11" s="97">
         <v>6</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="22">
         <v>727</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>1003</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>276</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="106" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="102">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123">
         <v>7</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="125">
         <v>6</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="125">
         <v>770</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="125">
         <v>1083</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="125">
         <f>E13-D13</f>
         <v>313</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="116" t="s">
+      <c r="I13" s="128" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102">
+      <c r="A14" s="95">
         <v>8</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="31">
         <v>771</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="31">
         <v>830</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="37">
         <f>E14-D14</f>
         <v>59</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="117" t="s">
+      <c r="I14" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102">
+      <c r="A15" s="95">
         <v>9</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>770</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>816</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <f>E15-D15</f>
         <v>46</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="103">
+      <c r="A16" s="96">
         <v>10</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <v>753</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>868</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <f>E16-D16</f>
         <v>115</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="117" t="s">
+      <c r="I16" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="104">
+      <c r="A17" s="97">
         <v>11</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>4</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>753</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>924</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <f>E17-D17</f>
         <v>171</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="117" t="s">
+      <c r="I17" s="109" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
@@ -1924,7 +1963,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
@@ -1934,167 +1973,167 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="68"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="106"/>
-      <c r="B20" s="89" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="66"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="61"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="107">
+      <c r="A21" s="100">
         <v>12</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="41">
         <v>841</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="41">
         <v>888</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="40">
         <f>E21-D21</f>
         <v>47</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="116" t="s">
+      <c r="I21" s="108" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="102">
+      <c r="A22" s="95">
         <v>13</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="44">
         <v>841</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="44">
         <v>1127</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="36">
         <f>E22-D22</f>
         <v>286</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="118" t="s">
+      <c r="I22" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="102">
+      <c r="A23" s="95">
         <v>14</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="55">
         <v>835</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="55">
         <v>1160</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="39">
         <f>E23-D23</f>
         <v>325</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="114" t="s">
+      <c r="I23" s="107" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="104">
+      <c r="A24" s="97">
         <v>16</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="65"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="103">
+      <c r="A25" s="96">
         <v>17</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="41">
         <v>922</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <v>1471</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="40">
         <f>E25-D25</f>
         <v>549</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="41" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="106" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102">
+      <c r="A26" s="95">
         <v>18</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="122" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="21">
         <v>8</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="44">
         <v>911</v>
       </c>
       <c r="E26" s="22">
@@ -2104,21 +2143,21 @@
         <f>E26-D26</f>
         <v>546</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="44" t="s">
         <v>51</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="113" t="s">
+      <c r="I26" s="106" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
@@ -2142,7 +2181,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="105"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
@@ -2152,26 +2191,26 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="106"/>
-      <c r="B29" s="97" t="s">
+      <c r="A29" s="99"/>
+      <c r="B29" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="72"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="103">
+      <c r="A30" s="96">
         <v>19</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="81" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="21">
@@ -2193,69 +2232,69 @@
       <c r="H30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="119" t="s">
+      <c r="I30" s="111" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="103">
+      <c r="A31" s="96">
         <v>20</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="37">
         <v>5</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="31">
         <v>780</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="31">
         <v>792</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="37">
         <f>E31-D31</f>
         <v>12</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="120" t="s">
+      <c r="I31" s="112" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="121"/>
+      <c r="C32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="I32" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
@@ -2265,86 +2304,86 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="69"/>
+      <c r="I33" s="64"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="106"/>
-      <c r="B34" s="97" t="s">
+      <c r="A34" s="99"/>
+      <c r="B34" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="72"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="103">
+      <c r="A35" s="96">
         <v>21</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="37">
         <v>5</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="31">
         <v>879</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="31">
         <v>954</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="37">
         <f>E35-D35</f>
         <v>75</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="120" t="s">
+      <c r="I35" s="112" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="103">
+      <c r="A36" s="96">
         <v>22</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <v>18</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="25">
         <v>661</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="25">
         <v>904</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="24">
         <f>E36-D36</f>
         <v>243</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="121" t="s">
+      <c r="I36" s="113" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
@@ -2363,12 +2402,12 @@
       <c r="H37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="11" t="s">
         <v>64</v>
       </c>
@@ -2378,26 +2417,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="69"/>
+      <c r="I38" s="64"/>
     </row>
     <row r="39" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="103"/>
-      <c r="B39" s="100" t="s">
+      <c r="A39" s="96"/>
+      <c r="B39" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="110">
+      <c r="A40" s="103">
         <v>23</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="21">
@@ -2413,295 +2452,295 @@
         <f>E40-D40</f>
         <v>183</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="117" t="s">
+      <c r="I40" s="109" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="111">
+      <c r="A41" s="104">
         <v>24</v>
       </c>
-      <c r="B41" s="122" t="s">
+      <c r="B41" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="123">
+      <c r="C41" s="115">
         <v>4</v>
       </c>
-      <c r="D41" s="124">
+      <c r="D41" s="116">
         <v>877</v>
       </c>
-      <c r="E41" s="124">
+      <c r="E41" s="116">
         <v>891</v>
       </c>
-      <c r="F41" s="123">
+      <c r="F41" s="115">
         <f>E41-D41</f>
         <v>14</v>
       </c>
-      <c r="G41" s="125" t="s">
+      <c r="G41" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="126" t="s">
+      <c r="H41" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="127" t="s">
+      <c r="I41" s="119" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="55"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="55"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="55"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="55"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="55"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="55"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="55"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="55"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="55"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="55"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="55"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="55"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="55"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="55"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="55"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="55"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="55"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="55"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="55"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="55"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="55"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="55"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="55"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="55"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
